--- a/Reports/Graph_Sprint_Data/UI_CHOOSE_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CHOOSE_SLOT_HISTORY_DATA.xlsx
@@ -21,8 +21,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -118,7 +118,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -577,6 +578,87 @@
       </c>
       <c r="G7" s="8" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>45489.62327909722</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>193fstcycle</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>45490.74122983796</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>194scncycle</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>45491.34799954861</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
@@ -797,6 +879,60 @@
       </c>
       <c r="G7" s="8" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>45491.63579666667</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>45491.70510522988</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -1020,29 +1156,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>45485.54392789137</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>45485.54392789352</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>193vinodtest</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="8" t="n">
         <v>1.42</v>
       </c>
     </row>
